--- a/results/mp/logistic/corona/confidence/210/desired-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,48 +40,51 @@
     <t>name</t>
   </si>
   <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>uncertainty</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -91,85 +94,91 @@
     <t>drop</t>
   </si>
   <si>
-    <t>avoid</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>happy</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>friends</t>
@@ -178,103 +187,115 @@
     <t>nice</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>create</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>funny</t>
+    <t>help</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>giving</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>huge</t>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>important</t>
+    <t>clean</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
 </sst>
 </file>
@@ -632,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +661,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" t="s">
         <v>50</v>
@@ -701,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -751,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -793,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,13 +822,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -819,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -843,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8424657534246576</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C6">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -869,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -893,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -901,13 +922,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8275862068965517</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -919,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -943,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -951,13 +972,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8">
         <v>0.9375</v>
@@ -1022,7 +1043,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K9">
         <v>0.9333333333333333</v>
@@ -1051,13 +1072,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7567567567567568</v>
+        <v>0.75</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,16 +1093,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K10">
-        <v>0.9268929503916449</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L10">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>355</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1093,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1101,13 +1122,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6956521739130435</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1119,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>0.9230769230769231</v>
@@ -1151,13 +1172,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6538461538461539</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1169,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.9090909090909091</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L12">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>352</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1193,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1201,13 +1222,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6521739130434783</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1219,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>0.9069767441860465</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L13">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M13">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1243,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,13 +1272,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6388888888888888</v>
+        <v>0.64</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1269,31 +1290,31 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14">
+        <v>0.8984375</v>
+      </c>
+      <c r="L14">
+        <v>115</v>
+      </c>
+      <c r="M14">
+        <v>115</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
-        <v>0.9014084507042254</v>
-      </c>
-      <c r="L14">
-        <v>128</v>
-      </c>
-      <c r="M14">
-        <v>128</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1301,13 +1322,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5873015873015873</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C15">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1319,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>0.8947368421052632</v>
@@ -1351,13 +1372,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.52</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1369,19 +1390,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8936170212765957</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="M16">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1393,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1401,13 +1422,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4689922480620155</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C17">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="D17">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1419,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>0.8928571428571429</v>
@@ -1451,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4117647058823529</v>
+        <v>0.498062015503876</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1469,19 +1490,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8888888888888888</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1493,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1501,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3050847457627119</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1519,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>0.8875</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L19">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>142</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1543,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1551,13 +1572,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2909090909090909</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1569,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>0.8828125</v>
+        <v>0.88125</v>
       </c>
       <c r="L20">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="M20">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1593,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1601,13 +1622,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2416107382550336</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1619,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>0.8773584905660378</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L21">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1643,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1651,13 +1672,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2133333333333333</v>
+        <v>0.2483221476510067</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22">
-        <v>0.8658536585365854</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L22">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1693,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1701,13 +1722,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1138888888888889</v>
+        <v>0.1527777777777778</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1719,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L23">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1743,21 +1764,45 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.06746031746031746</v>
+      </c>
+      <c r="C24">
+        <v>17</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>235</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24">
-        <v>0.8611111111111112</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,21 +1814,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K25">
-        <v>0.8214285714285714</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,21 +1840,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K26">
-        <v>0.8148148148148148</v>
+        <v>0.84</v>
       </c>
       <c r="L26">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1821,21 +1866,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K27">
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1847,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K28">
-        <v>0.7948717948717948</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1873,21 +1918,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29">
-        <v>0.7936507936507936</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1899,12 +1944,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K30">
         <v>0.7916666666666666</v>
@@ -1930,16 +1975,16 @@
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K31">
-        <v>0.7894736842105263</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1951,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K32">
-        <v>0.78</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1977,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2003,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K34">
-        <v>0.7647058823529411</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2029,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2055,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K36">
-        <v>0.7470588235294118</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L36">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2081,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K37">
-        <v>0.7391304347826086</v>
+        <v>0.7322033898305085</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="M37">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2107,12 +2152,12 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K38">
         <v>0.7272727272727273</v>
@@ -2138,16 +2183,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K39">
-        <v>0.7154811715481172</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L39">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="M39">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2159,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>68</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>0.7040816326530612</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L40">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="M40">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2182,24 +2227,24 @@
         <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K41">
-        <v>0.696969696969697</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2211,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K42">
-        <v>0.6914893617021277</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2237,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K43">
-        <v>0.6842105263157895</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2263,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K44">
-        <v>0.6615384615384615</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2289,21 +2334,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K45">
-        <v>0.651685393258427</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L45">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M45">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2315,21 +2360,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K46">
-        <v>0.6428571428571429</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2341,21 +2386,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K47">
-        <v>0.6296296296296297</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L47">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M47">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2367,21 +2412,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K48">
-        <v>0.6285714285714286</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2393,21 +2438,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K49">
-        <v>0.6190476190476191</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2419,21 +2464,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.6190476190476191</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2445,21 +2490,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K51">
-        <v>0.6078431372549019</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2471,21 +2516,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K52">
-        <v>0.5714285714285714</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L52">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2497,21 +2542,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K53">
-        <v>0.5652173913043478</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2523,21 +2568,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K54">
-        <v>0.5205479452054794</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2549,15 +2594,15 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K55">
-        <v>0.4814814814814815</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L55">
         <v>13</v>
@@ -2575,21 +2620,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K56">
-        <v>0.4666666666666667</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2601,21 +2646,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K57">
-        <v>0.358974358974359</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L57">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2627,21 +2672,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K58">
-        <v>0.2203389830508475</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2653,15 +2698,15 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59">
-        <v>0.21875</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L59">
         <v>14</v>
@@ -2679,7 +2724,163 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>50</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K60">
+        <v>0.4516129032258064</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>14</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K61">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L61">
+        <v>35</v>
+      </c>
+      <c r="M61">
+        <v>35</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K62">
+        <v>0.265625</v>
+      </c>
+      <c r="L62">
+        <v>17</v>
+      </c>
+      <c r="M62">
+        <v>17</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K63">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L63">
+        <v>14</v>
+      </c>
+      <c r="M63">
+        <v>14</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K64">
+        <v>0.2280701754385965</v>
+      </c>
+      <c r="L64">
+        <v>13</v>
+      </c>
+      <c r="M64">
+        <v>13</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65">
+        <v>0.004868913857677903</v>
+      </c>
+      <c r="L65">
+        <v>13</v>
+      </c>
+      <c r="M65">
+        <v>16</v>
+      </c>
+      <c r="N65">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O65">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2657</v>
       </c>
     </row>
   </sheetData>
